--- a/Running projects/UEP 17th Floor/BOQ & BILLS/Final Bill UEP - (Revised by Nadeem bhai).xlsx
+++ b/Running projects/UEP 17th Floor/BOQ & BILLS/Final Bill UEP - (Revised by Nadeem bhai).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\UEP 17th Floor\BOQ &amp; BILLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EADBD31-3A24-4ABE-BA58-4CD4187CA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34253867-55CB-42EE-A496-00BA16BC4E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4036,6 +4036,48 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4045,24 +4087,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="99" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4081,29 +4105,32 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="90" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="91" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="99" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4114,12 +4141,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="91" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="90" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4141,26 +4162,41 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4176,42 +4212,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -5747,7 +5747,7 @@
   <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7467,9 +7467,9 @@
   <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B31" sqref="B31:D31"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7585,80 +7585,80 @@
     <row r="7" spans="1:19" s="6" customFormat="1" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="607" t="s">
+      <c r="D7" s="621" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="608"/>
-      <c r="F7" s="608"/>
-      <c r="G7" s="608"/>
-      <c r="H7" s="608"/>
-      <c r="I7" s="608"/>
-      <c r="J7" s="608"/>
-      <c r="K7" s="607" t="s">
+      <c r="E7" s="622"/>
+      <c r="F7" s="622"/>
+      <c r="G7" s="622"/>
+      <c r="H7" s="622"/>
+      <c r="I7" s="622"/>
+      <c r="J7" s="622"/>
+      <c r="K7" s="621" t="s">
         <v>205</v>
       </c>
-      <c r="L7" s="608"/>
-      <c r="M7" s="620"/>
-      <c r="N7" s="608" t="s">
+      <c r="L7" s="622"/>
+      <c r="M7" s="628"/>
+      <c r="N7" s="622" t="s">
         <v>209</v>
       </c>
-      <c r="O7" s="608"/>
-      <c r="P7" s="608"/>
-      <c r="Q7" s="608"/>
-      <c r="R7" s="621"/>
+      <c r="O7" s="622"/>
+      <c r="P7" s="622"/>
+      <c r="Q7" s="622"/>
+      <c r="R7" s="629"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="622" t="s">
+      <c r="A8" s="607" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="623"/>
-      <c r="C8" s="612" t="s">
+      <c r="B8" s="608"/>
+      <c r="C8" s="611" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="612" t="s">
+      <c r="D8" s="611" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="614" t="s">
+      <c r="E8" s="613" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="628" t="s">
+      <c r="F8" s="617" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="610"/>
-      <c r="H8" s="611" t="s">
+      <c r="G8" s="618"/>
+      <c r="H8" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="610"/>
+      <c r="I8" s="618"/>
       <c r="J8" s="527" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="616" t="s">
+      <c r="K8" s="624" t="s">
         <v>203</v>
       </c>
-      <c r="L8" s="618" t="s">
+      <c r="L8" s="626" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="614" t="s">
+      <c r="M8" s="613" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="609" t="s">
+      <c r="N8" s="623" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="610"/>
-      <c r="P8" s="611" t="s">
+      <c r="O8" s="618"/>
+      <c r="P8" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="610"/>
+      <c r="Q8" s="618"/>
       <c r="R8" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="27" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="624"/>
-      <c r="B9" s="625"/>
-      <c r="C9" s="613"/>
-      <c r="D9" s="613"/>
-      <c r="E9" s="615"/>
+      <c r="A9" s="609"/>
+      <c r="B9" s="610"/>
+      <c r="C9" s="612"/>
+      <c r="D9" s="612"/>
+      <c r="E9" s="614"/>
       <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
@@ -7674,9 +7674,9 @@
       <c r="J9" s="528" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="617"/>
-      <c r="L9" s="619"/>
-      <c r="M9" s="615"/>
+      <c r="K9" s="625"/>
+      <c r="L9" s="627"/>
+      <c r="M9" s="614"/>
       <c r="N9" s="523" t="s">
         <v>10</v>
       </c>
@@ -13365,64 +13365,73 @@
     </row>
     <row r="117" spans="1:19" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
-      <c r="B117" s="627"/>
-      <c r="C117" s="629"/>
-      <c r="D117" s="629"/>
-      <c r="E117" s="629"/>
-      <c r="F117" s="629"/>
-      <c r="G117" s="629"/>
-      <c r="H117" s="629"/>
-      <c r="I117" s="629"/>
-      <c r="J117" s="629"/>
+      <c r="B117" s="616"/>
+      <c r="C117" s="620"/>
+      <c r="D117" s="620"/>
+      <c r="E117" s="620"/>
+      <c r="F117" s="620"/>
+      <c r="G117" s="620"/>
+      <c r="H117" s="620"/>
+      <c r="I117" s="620"/>
+      <c r="J117" s="620"/>
       <c r="K117" s="484"/>
       <c r="L117" s="484"/>
     </row>
     <row r="118" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
-      <c r="B118" s="627"/>
-      <c r="C118" s="627"/>
-      <c r="D118" s="627"/>
-      <c r="E118" s="627"/>
-      <c r="F118" s="627"/>
-      <c r="G118" s="627"/>
-      <c r="H118" s="627"/>
-      <c r="I118" s="627"/>
-      <c r="J118" s="627"/>
+      <c r="B118" s="616"/>
+      <c r="C118" s="616"/>
+      <c r="D118" s="616"/>
+      <c r="E118" s="616"/>
+      <c r="F118" s="616"/>
+      <c r="G118" s="616"/>
+      <c r="H118" s="616"/>
+      <c r="I118" s="616"/>
+      <c r="J118" s="616"/>
       <c r="K118" s="483"/>
       <c r="L118" s="483"/>
     </row>
     <row r="119" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
-      <c r="B119" s="627"/>
-      <c r="C119" s="627"/>
-      <c r="D119" s="627"/>
-      <c r="E119" s="627"/>
-      <c r="F119" s="627"/>
-      <c r="G119" s="627"/>
-      <c r="H119" s="627"/>
-      <c r="I119" s="627"/>
-      <c r="J119" s="627"/>
+      <c r="B119" s="616"/>
+      <c r="C119" s="616"/>
+      <c r="D119" s="616"/>
+      <c r="E119" s="616"/>
+      <c r="F119" s="616"/>
+      <c r="G119" s="616"/>
+      <c r="H119" s="616"/>
+      <c r="I119" s="616"/>
+      <c r="J119" s="616"/>
       <c r="K119" s="483"/>
       <c r="L119" s="483"/>
     </row>
     <row r="120" spans="1:19" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="219"/>
-      <c r="B120" s="626" t="s">
+      <c r="B120" s="615" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="626"/>
-      <c r="D120" s="626"/>
-      <c r="E120" s="626"/>
-      <c r="F120" s="626"/>
-      <c r="G120" s="626"/>
-      <c r="H120" s="626"/>
-      <c r="I120" s="626"/>
-      <c r="J120" s="626"/>
+      <c r="C120" s="615"/>
+      <c r="D120" s="615"/>
+      <c r="E120" s="615"/>
+      <c r="F120" s="615"/>
+      <c r="G120" s="615"/>
+      <c r="H120" s="615"/>
+      <c r="I120" s="615"/>
+      <c r="J120" s="615"/>
       <c r="K120" s="482"/>
       <c r="L120" s="482"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:R7"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="M8:M9"/>
@@ -13432,15 +13441,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="B117:J117"/>
     <mergeCell ref="B118:J118"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:R7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.25" top="0.63" bottom="0.5" header="0.32" footer="0.25"/>
@@ -14192,80 +14192,80 @@
       <c r="A6" s="268"/>
       <c r="B6" s="268"/>
       <c r="C6" s="263"/>
-      <c r="D6" s="635" t="s">
+      <c r="D6" s="642" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="636"/>
-      <c r="F6" s="636"/>
-      <c r="G6" s="636"/>
-      <c r="H6" s="636"/>
-      <c r="I6" s="636"/>
-      <c r="J6" s="637"/>
-      <c r="K6" s="635" t="s">
+      <c r="E6" s="643"/>
+      <c r="F6" s="643"/>
+      <c r="G6" s="643"/>
+      <c r="H6" s="643"/>
+      <c r="I6" s="643"/>
+      <c r="J6" s="644"/>
+      <c r="K6" s="642" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="636"/>
-      <c r="M6" s="637"/>
-      <c r="N6" s="636" t="s">
+      <c r="L6" s="643"/>
+      <c r="M6" s="644"/>
+      <c r="N6" s="643" t="s">
         <v>209</v>
       </c>
-      <c r="O6" s="636"/>
-      <c r="P6" s="636"/>
-      <c r="Q6" s="636"/>
-      <c r="R6" s="637"/>
+      <c r="O6" s="643"/>
+      <c r="P6" s="643"/>
+      <c r="Q6" s="643"/>
+      <c r="R6" s="644"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="622" t="s">
+      <c r="A7" s="607" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="644"/>
-      <c r="C7" s="612" t="s">
+      <c r="B7" s="632"/>
+      <c r="C7" s="611" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="646" t="s">
+      <c r="D7" s="634" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="647" t="s">
+      <c r="E7" s="637" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="634" t="s">
+      <c r="F7" s="635" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="633"/>
-      <c r="H7" s="634" t="s">
+      <c r="G7" s="636"/>
+      <c r="H7" s="635" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="632"/>
+      <c r="I7" s="641"/>
       <c r="J7" s="426" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="630" t="s">
+      <c r="K7" s="639" t="s">
         <v>207</v>
       </c>
-      <c r="L7" s="638" t="s">
+      <c r="L7" s="645" t="s">
         <v>208</v>
       </c>
-      <c r="M7" s="640" t="s">
+      <c r="M7" s="647" t="s">
         <v>189</v>
       </c>
-      <c r="N7" s="632" t="s">
+      <c r="N7" s="641" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="633"/>
-      <c r="P7" s="634" t="s">
+      <c r="O7" s="636"/>
+      <c r="P7" s="635" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="632"/>
+      <c r="Q7" s="641"/>
       <c r="R7" s="426" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="275" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="624"/>
-      <c r="B8" s="645"/>
-      <c r="C8" s="613"/>
-      <c r="D8" s="613"/>
-      <c r="E8" s="648"/>
+      <c r="A8" s="609"/>
+      <c r="B8" s="633"/>
+      <c r="C8" s="612"/>
+      <c r="D8" s="612"/>
+      <c r="E8" s="638"/>
       <c r="F8" s="272" t="s">
         <v>122</v>
       </c>
@@ -14281,9 +14281,9 @@
       <c r="J8" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="631"/>
-      <c r="L8" s="639"/>
-      <c r="M8" s="641"/>
+      <c r="K8" s="640"/>
+      <c r="L8" s="646"/>
+      <c r="M8" s="648"/>
       <c r="N8" s="272" t="s">
         <v>122</v>
       </c>
@@ -14301,8 +14301,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="642"/>
-      <c r="B9" s="643"/>
+      <c r="A9" s="630"/>
+      <c r="B9" s="631"/>
       <c r="C9" s="276" t="s">
         <v>125</v>
       </c>
@@ -16153,12 +16153,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
@@ -16168,6 +16162,12 @@
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.36" right="0.25" top="0.44" bottom="0.56000000000000005" header="0.33" footer="0.33"/>
@@ -16771,100 +16771,100 @@
       </c>
       <c r="B5" s="269"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="654" t="s">
+      <c r="D5" s="649" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="655"/>
-      <c r="F5" s="655"/>
-      <c r="G5" s="655"/>
-      <c r="H5" s="655"/>
-      <c r="I5" s="655"/>
-      <c r="J5" s="656"/>
-      <c r="K5" s="660" t="s">
+      <c r="E5" s="650"/>
+      <c r="F5" s="650"/>
+      <c r="G5" s="650"/>
+      <c r="H5" s="650"/>
+      <c r="I5" s="650"/>
+      <c r="J5" s="651"/>
+      <c r="K5" s="655" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="661"/>
-      <c r="M5" s="662"/>
-      <c r="N5" s="660" t="s">
+      <c r="L5" s="656"/>
+      <c r="M5" s="657"/>
+      <c r="N5" s="655" t="s">
         <v>209</v>
       </c>
-      <c r="O5" s="661"/>
-      <c r="P5" s="661"/>
-      <c r="Q5" s="661"/>
-      <c r="R5" s="662"/>
+      <c r="O5" s="656"/>
+      <c r="P5" s="656"/>
+      <c r="Q5" s="656"/>
+      <c r="R5" s="657"/>
     </row>
     <row r="6" spans="1:18" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
       <c r="B6" s="268"/>
       <c r="C6" s="263"/>
-      <c r="D6" s="657"/>
-      <c r="E6" s="658"/>
-      <c r="F6" s="658"/>
-      <c r="G6" s="658"/>
-      <c r="H6" s="658"/>
-      <c r="I6" s="658"/>
-      <c r="J6" s="659"/>
-      <c r="K6" s="663"/>
-      <c r="L6" s="664"/>
-      <c r="M6" s="665"/>
-      <c r="N6" s="663"/>
-      <c r="O6" s="664"/>
-      <c r="P6" s="664"/>
-      <c r="Q6" s="664"/>
-      <c r="R6" s="665"/>
+      <c r="D6" s="652"/>
+      <c r="E6" s="653"/>
+      <c r="F6" s="653"/>
+      <c r="G6" s="653"/>
+      <c r="H6" s="653"/>
+      <c r="I6" s="653"/>
+      <c r="J6" s="654"/>
+      <c r="K6" s="658"/>
+      <c r="L6" s="659"/>
+      <c r="M6" s="660"/>
+      <c r="N6" s="658"/>
+      <c r="O6" s="659"/>
+      <c r="P6" s="659"/>
+      <c r="Q6" s="659"/>
+      <c r="R6" s="660"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="622" t="s">
+      <c r="A7" s="607" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="644"/>
-      <c r="C7" s="612" t="s">
+      <c r="B7" s="632"/>
+      <c r="C7" s="611" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="612" t="s">
+      <c r="D7" s="611" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="638" t="s">
+      <c r="E7" s="645" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="651" t="s">
+      <c r="F7" s="663" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="652"/>
-      <c r="H7" s="651" t="s">
+      <c r="G7" s="664"/>
+      <c r="H7" s="663" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="653"/>
+      <c r="I7" s="665"/>
       <c r="J7" s="333" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="638" t="s">
+      <c r="K7" s="645" t="s">
         <v>207</v>
       </c>
-      <c r="L7" s="638" t="s">
+      <c r="L7" s="645" t="s">
         <v>208</v>
       </c>
-      <c r="M7" s="638" t="s">
+      <c r="M7" s="645" t="s">
         <v>189</v>
       </c>
-      <c r="N7" s="651" t="s">
+      <c r="N7" s="663" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="652"/>
-      <c r="P7" s="651" t="s">
+      <c r="O7" s="664"/>
+      <c r="P7" s="663" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="653"/>
+      <c r="Q7" s="665"/>
       <c r="R7" s="333" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="275" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="624"/>
-      <c r="B8" s="645"/>
-      <c r="C8" s="613"/>
-      <c r="D8" s="613"/>
-      <c r="E8" s="648"/>
+      <c r="A8" s="609"/>
+      <c r="B8" s="633"/>
+      <c r="C8" s="612"/>
+      <c r="D8" s="612"/>
+      <c r="E8" s="638"/>
       <c r="F8" s="272" t="s">
         <v>122</v>
       </c>
@@ -16880,9 +16880,9 @@
       <c r="J8" s="274" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="648"/>
-      <c r="L8" s="648"/>
-      <c r="M8" s="648"/>
+      <c r="K8" s="638"/>
+      <c r="L8" s="638"/>
+      <c r="M8" s="638"/>
       <c r="N8" s="272" t="s">
         <v>122</v>
       </c>
@@ -16900,8 +16900,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="649"/>
-      <c r="B9" s="650"/>
+      <c r="A9" s="661"/>
+      <c r="B9" s="662"/>
       <c r="C9" s="334" t="s">
         <v>168</v>
       </c>
@@ -18885,11 +18885,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D5:J6"/>
-    <mergeCell ref="K5:M6"/>
-    <mergeCell ref="N5:R6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:O7"/>
@@ -18900,6 +18895,11 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D5:J6"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="N5:R6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.45" right="0.21" top="0.25" bottom="0.5" header="0.33" footer="0.45"/>
